--- a/TA buku/Results/Filter/dp-partial-ner.xlsx
+++ b/TA buku/Results/Filter/dp-partial-ner.xlsx
@@ -3139,10 +3139,10 @@
     <t>list!interesting|wine!interesting|values!many</t>
   </si>
   <si>
-    <t>price!beat</t>
-  </si>
-  <si>
-    <t>advanatage!-|half!-|price!-|sushi!-|deal!-|saturday!-</t>
+    <t>|price!beat</t>
+  </si>
+  <si>
+    <t>advanatage!-|half!-|price!-|sushi!-|deal!-</t>
   </si>
   <si>
     <t>menu!worth|prix!worth|fixe!worth|penny!more</t>
@@ -3151,7 +3151,7 @@
     <t>food!fresh</t>
   </si>
   <si>
-    <t>service!great|food!great|price!reasonable|beginning!great|evening!service</t>
+    <t>service!great|food!great|price!reasonable|beginning!great</t>
   </si>
   <si>
     <t>pizza!-</t>
@@ -3172,10 +3172,10 @@
     <t>selection!great|wine!great|value!great|price!great|champagne!price|house!value</t>
   </si>
   <si>
-    <t>dessert!tiny</t>
-  </si>
-  <si>
-    <t>drinks!welll</t>
+    <t>|dessert!tiny</t>
+  </si>
+  <si>
+    <t>|drinks!welll</t>
   </si>
   <si>
     <t>beers!interesting|wines!interesting</t>
@@ -3187,7 +3187,7 @@
     <t>sushi!good</t>
   </si>
   <si>
-    <t>roll!huge|spicy!huge|tuna!huge</t>
+    <t>|roll!huge|spicy!huge|tuna!huge</t>
   </si>
   <si>
     <t>choices!limited|food!more</t>
@@ -3199,10 +3199,10 @@
     <t>price!reasonable</t>
   </si>
   <si>
-    <t>menu!typical|restaurant!menu</t>
-  </si>
-  <si>
-    <t>wines!average</t>
+    <t>|menu!typical|restaurant!menu</t>
+  </si>
+  <si>
+    <t>|wines!average</t>
   </si>
   <si>
     <t>food!greatest|menu!greatest|price!good|price!greatest|allergies!food|prixe!food|fixe!food|tasting!food</t>
@@ -3217,7 +3217,7 @@
     <t>prices!cheap|quality!prices</t>
   </si>
   <si>
-    <t>prices!mortal|gods!mortal|years!last|secret!last</t>
+    <t>|prices!mortal|gods!mortal|secret!last</t>
   </si>
   <si>
     <t>everytime!exceptional|food!exceptional|service!food|value!food</t>
@@ -3226,7 +3226,7 @@
     <t>place!pricey|food!worth</t>
   </si>
   <si>
-    <t>dishes!average</t>
+    <t>|dishes!average</t>
   </si>
   <si>
     <t>prices!cheap</t>
@@ -3241,7 +3241,7 @@
     <t>prices!authentic</t>
   </si>
   <si>
-    <t>fallback!only|prices!only|restaurant!prices</t>
+    <t>|fallback!only|prices!only|restaurant!prices</t>
   </si>
   <si>
     <t>seafood!good|prices!high</t>
@@ -3256,7 +3256,7 @@
     <t>plate!delight|cheese!delight|bargain!plate|delight!bargain</t>
   </si>
   <si>
-    <t>list!extensive|wine!extensive</t>
+    <t>|list!extensive|wine!extensive</t>
   </si>
   <si>
     <t>food!good|deal!great|place!food|self!great</t>
@@ -3280,7 +3280,7 @@
     <t>food!authentic</t>
   </si>
   <si>
-    <t>sandwiches!dry</t>
+    <t>|sandwiches!dry</t>
   </si>
   <si>
     <t>place!worth|prices!place</t>
@@ -3295,7 +3295,7 @@
     <t>shanty!recommend|vanilla!recommend|mmmm!shanty</t>
   </si>
   <si>
-    <t>location!good|college!near|hutner!near|fact!location|prices!reasonable</t>
+    <t>location!good|fact!location|prices!reasonable</t>
   </si>
   <si>
     <t>rest!worth|sum!worth</t>
@@ -3328,7 +3328,7 @@
     <t>ravioli!good|everything!overpriced|bit!everything</t>
   </si>
   <si>
-    <t>food!average|draw!food</t>
+    <t>|food!average|draw!food</t>
   </si>
   <si>
     <t>place!bargain</t>
@@ -3355,7 +3355,7 @@
     <t>price!-|quality!-|fish!-|return!-|visit!-</t>
   </si>
   <si>
-    <t>decor!fabulous|manhattan!trendy|restaurant!trendy|food!trendy|staff!restaurant|manhattanite!restaurant|side!soho/village/upper|west!soho/village/upper|prices!side|avenue!restaurant|clientele!pretentious|clientele!soho/village/upper</t>
+    <t>decor!fabulous|restaurant!trendy|food!trendy|staff!restaurant|manhattanite!restaurant|side!soho/village/upper|west!soho/village/upper|prices!side|clientele!pretentious|clientele!soho/village/upper</t>
   </si>
   <si>
     <t>restaurants!good|uws!good|food!overpriced|wait-staff!overpriced|service!clumsy|diner!clumsy|management!diner</t>
@@ -3367,7 +3367,7 @@
     <t>prices!mediocre|food!okay</t>
   </si>
   <si>
-    <t>food!solid|decor!solid|prices!reasonable|prices!nice|baluchi!food</t>
+    <t>food!solid|decor!solid|prices!reasonable|prices!nice</t>
   </si>
   <si>
     <t>sushi!-</t>
@@ -3388,7 +3388,7 @@
     <t>food!overpriced|service!overpriced</t>
   </si>
   <si>
-    <t>dinner!-|manhattan!-|feet!-</t>
+    <t>dinner!-|feet!-</t>
   </si>
   <si>
     <t>guacamole!bland|plate!bland</t>
@@ -3403,7 +3403,7 @@
     <t>food!decent|price!decent|people!friendly|people!decent</t>
   </si>
   <si>
-    <t>prices!high|view!prices</t>
+    <t>|prices!high|view!prices</t>
   </si>
   <si>
     <t>price!-|prestige!-|location!-</t>
@@ -3418,7 +3418,7 @@
     <t>place!great|value!great</t>
   </si>
   <si>
-    <t>food!flavorful</t>
+    <t>|food!flavorful</t>
   </si>
   <si>
     <t>service!helpful|price!helpful|dish!helpful</t>
@@ -3439,13 +3439,13 @@
     <t>restaurant!expensive</t>
   </si>
   <si>
-    <t>restaurants!new|landmark!new|city!new</t>
-  </si>
-  <si>
-    <t>service!ok</t>
-  </si>
-  <si>
-    <t>home!-|casa!-|la!-|femme!-|visit!-|diners!-|money!-|time!-</t>
+    <t>|restaurants!new|landmark!new</t>
+  </si>
+  <si>
+    <t>|service!ok</t>
+  </si>
+  <si>
+    <t>home!-|visit!-|diners!-|money!-|time!-</t>
   </si>
   <si>
     <t>drinks!horrible</t>
@@ -3457,7 +3457,7 @@
     <t>show!missed|food!enjoy|wallets!empy|experience!good|dancers!food|belly!food</t>
   </si>
   <si>
-    <t>bill!inedible|portion!bill</t>
+    <t>|bill!inedible|portion!bill</t>
   </si>
   <si>
     <t>money!wasted</t>
@@ -3478,7 +3478,7 @@
     <t>stone!-|bowl!-</t>
   </si>
   <si>
-    <t>deal!wonderful|bbe!wonderful|party!bbe</t>
+    <t>deal!wonderful|party!bbe</t>
   </si>
   <si>
     <t>company!great|date!super|point!super|price!super|things!date|brasserie!good</t>
@@ -3493,7 +3493,7 @@
     <t>food!good|price!high</t>
   </si>
   <si>
-    <t>bite!-|salmon!-|years!-|restaurants!-|salmon!-|flatbush!-|farms!-</t>
+    <t>bite!-|salmon!-|restaurants!-|salmon!-</t>
   </si>
   <si>
     <t>eggplant!cold</t>
@@ -3514,7 +3514,7 @@
     <t>bread!stale</t>
   </si>
   <si>
-    <t>place!empty</t>
+    <t>|place!empty</t>
   </si>
   <si>
     <t>food!lousy|portions!tiny</t>
@@ -3529,28 +3529,28 @@
     <t>cart!-|attendant!-|lotus!-|leaf!-|rice!-|rice!-</t>
   </si>
   <si>
-    <t>mai!greasy|pork!greasy|fun!dry|chow!dry|family!loud|shu!greasy</t>
+    <t>mai!greasy|pork!greasy|fun!dry|family!loud|shu!greasy</t>
   </si>
   <si>
     <t>service!excellent|perfection!service</t>
   </si>
   <si>
-    <t>visit!special</t>
+    <t>|visit!special</t>
   </si>
   <si>
     <t>bit!sweet|stuff!sweet|food!average|fusion!thai|thing!bit</t>
   </si>
   <si>
-    <t>thing!only|chicken!only|puree!chicken</t>
-  </si>
-  <si>
-    <t>salt!more|bit!salt</t>
+    <t>|thing!only|chicken!only|puree!chicken</t>
+  </si>
+  <si>
+    <t>|salt!more|bit!salt</t>
   </si>
   <si>
     <t>effort!kills|tho!effort</t>
   </si>
   <si>
-    <t>list!extensive|sake!extensive</t>
+    <t>|list!extensive|sake!extensive</t>
   </si>
   <si>
     <t>roll!good|spicy!good|tempura!awesome|tuna!good|appetizer!tempura|rock!awesome|shrimp!awesome</t>
@@ -3580,7 +3580,7 @@
     <t>rice!good|ration!good</t>
   </si>
   <si>
-    <t>food!prepared|impecable!food</t>
+    <t>|food!prepared|impecable!food</t>
   </si>
   <si>
     <t>dishes!great</t>
@@ -3589,7 +3589,7 @@
     <t>somosas!-|chai!-|chole!-|dhosas!-|dhal!-</t>
   </si>
   <si>
-    <t>service!-|varys!-|day!-|day!-</t>
+    <t>service!-|varys!-</t>
   </si>
   <si>
     <t>kitchen!slow</t>
@@ -3601,19 +3601,19 @@
     <t>ambience!nice|lunch!best|conversation!ambience</t>
   </si>
   <si>
-    <t>river!-|weehawken!-|idea!-|top!-|view!-|chart!-|house!-</t>
+    <t>river!-|idea!-|top!-|view!-|chart!-|house!-</t>
   </si>
   <si>
     <t>dessert!incredible|lava!incredible|cake!incredible</t>
   </si>
   <si>
-    <t>bistro!small|path!small</t>
+    <t>|bistro!small|path!small</t>
   </si>
   <si>
     <t>restaurant!cozy</t>
   </si>
   <si>
-    <t>desserts!brilliant|soup!brilliant|food!average|onion!french|way!desserts</t>
+    <t>desserts!brilliant|soup!brilliant|food!average|way!desserts</t>
   </si>
   <si>
     <t>ambience!-|food!-|companion!-|trip!-|world!-</t>
@@ -3640,7 +3640,7 @@
     <t>shrimp!fried|wife!shrimp</t>
   </si>
   <si>
-    <t>signs!japanese|menus!japanese|food!menus|waitstaff!menus</t>
+    <t>|signs!japanese|menus!japanese|food!menus|waitstaff!menus</t>
   </si>
   <si>
     <t>leon!gem|fare!prepared|bistro!prepared|village!leon|specials!good|gem!fare|atmosphere!warm|hip!fare</t>
@@ -3670,16 +3670,16 @@
     <t>service!great</t>
   </si>
   <si>
-    <t>people!-|new!-|york!-</t>
-  </si>
-  <si>
-    <t>pizza!yummy</t>
+    <t>people!-</t>
+  </si>
+  <si>
+    <t>|pizza!yummy</t>
   </si>
   <si>
     <t>lunch!-|reviews!-</t>
   </si>
   <si>
-    <t>sauce!watery|flavor!much|food!flavor</t>
+    <t>|sauce!watery|flavor!much|food!flavor</t>
   </si>
   <si>
     <t>waitress!patient|food!phenomenal</t>
@@ -3691,7 +3691,7 @@
     <t>pizza!great|service!great</t>
   </si>
   <si>
-    <t>wait!small</t>
+    <t>|wait!small</t>
   </si>
   <si>
     <t>block!magnificent|end!magnificent</t>
@@ -3703,7 +3703,7 @@
     <t>terrace!enjoy|garden!enjoy</t>
   </si>
   <si>
-    <t>nights!warm|restaurant!warm|kitchen!open|part!open</t>
+    <t>restaurant!warm|kitchen!open|part!open</t>
   </si>
   <si>
     <t>setting!intimate|service!intimate|occasion!special</t>
@@ -3715,7 +3715,7 @@
     <t>lounge!attraction</t>
   </si>
   <si>
-    <t>restaurant!romantic|raga!romantic</t>
+    <t>restaurant!romantic</t>
   </si>
   <si>
     <t>staff!helpful</t>
@@ -3730,7 +3730,7 @@
     <t>server!helpful</t>
   </si>
   <si>
-    <t>atmosphere!wonderful|evening!cool|avenue!6th</t>
+    <t>atmosphere!wonderful|avenue!6th</t>
   </si>
   <si>
     <t>staff!nonsense</t>
@@ -3748,7 +3748,7 @@
     <t>decor!vibrant|boths!right|side!right|side!several|hall!right</t>
   </si>
   <si>
-    <t>time!first|band!time|atmosphere!band|jazz!live</t>
+    <t>|time!first|band!time|atmosphere!band|jazz!live</t>
   </si>
   <si>
     <t>server!cool</t>
@@ -3757,7 +3757,7 @@
     <t>laugh!good|bathrooms!hidden|decor!hidden</t>
   </si>
   <si>
-    <t>staff!professional</t>
+    <t>|staff!professional</t>
   </si>
   <si>
     <t>thing!good|service!good|restaurant!thing</t>
@@ -3835,7 +3835,7 @@
     <t>place!fun</t>
   </si>
   <si>
-    <t>staff!friendliest</t>
+    <t>|staff!friendliest</t>
   </si>
   <si>
     <t>place!-|lot!-|fun!-</t>
@@ -3847,28 +3847,28 @@
     <t>service!slow</t>
   </si>
   <si>
-    <t>service!quick</t>
+    <t>|service!quick</t>
   </si>
   <si>
     <t>delivery!-</t>
   </si>
   <si>
-    <t>zero!-|ambiance!-|boot!-</t>
+    <t>ambiance!-|boot!-</t>
   </si>
   <si>
     <t>ambience!nice|service!great</t>
   </si>
   <si>
-    <t>nothing!special|atmosphere!special|establishment!nothing</t>
-  </si>
-  <si>
-    <t>owner!japanese|staff!japanese</t>
+    <t>|nothing!special|atmosphere!special|establishment!nothing</t>
+  </si>
+  <si>
+    <t>|owner!japanese|staff!japanese</t>
   </si>
   <si>
     <t>trattoria!top|top!quaint</t>
   </si>
   <si>
-    <t>room!back|secret!back</t>
+    <t>|room!back|secret!back</t>
   </si>
   <si>
     <t>service!excellent</t>
@@ -3910,7 +3910,7 @@
     <t>restaurant!cramped</t>
   </si>
   <si>
-    <t>bar!nice|cigar!nice|staff!great|patroon!bar</t>
+    <t>bar!nice|cigar!nice|staff!great</t>
   </si>
   <si>
     <t>waitstaff!friendly</t>
@@ -3919,7 +3919,7 @@
     <t>service!good|ambience!good|date!service|outing!date|group!date</t>
   </si>
   <si>
-    <t>occassion!special|sort!special|candle!occassion</t>
+    <t>|occassion!special|sort!special|candle!occassion</t>
   </si>
   <si>
     <t>waiter!attentive|mark!attentive</t>
@@ -3928,7 +3928,7 @@
     <t>atmosphere!great|hesititate!hate</t>
   </si>
   <si>
-    <t>town!little</t>
+    <t>|town!little</t>
   </si>
   <si>
     <t>cafe!-|noir!-|dont!-|jsut!-|people!-</t>
@@ -3940,7 +3940,7 @@
     <t>waitress!-</t>
   </si>
   <si>
-    <t>things!work|thing!only|tips!only|america!things</t>
+    <t>things!work|thing!only|tips!only</t>
   </si>
   <si>
     <t>tip!-|model/waitress!-|manager!-</t>
@@ -3952,7 +3952,7 @@
     <t>decor!charming</t>
   </si>
   <si>
-    <t>experience!worst|customer!worst|service!worst|weeks!experience|restaurant!worst</t>
+    <t>experience!worst|customer!worst|service!worst|restaurant!worst</t>
   </si>
   <si>
     <t>gentleman!-|manager!-|table!-|smile!-|order!-</t>
@@ -3967,13 +3967,13 @@
     <t>staff!nice|bathroom!unisex</t>
   </si>
   <si>
-    <t>patrons!last|time!last|closing!patrons</t>
+    <t>|patrons!last|time!last|closing!patrons</t>
   </si>
   <si>
     <t>staff!friendly|company!enjoy|meal!enjoy</t>
   </si>
   <si>
-    <t>patio!back</t>
+    <t>|patio!back</t>
   </si>
   <si>
     <t>service!slow|bit!service</t>
@@ -4009,13 +4009,13 @@
     <t>place!great</t>
   </si>
   <si>
-    <t>murray!-|anything!-|service!-</t>
+    <t>anything!-|service!-</t>
   </si>
   <si>
     <t>service!awful</t>
   </si>
   <si>
-    <t>sandwich!open|cheese!open|manager!sandwich</t>
+    <t>|sandwich!open|cheese!open|manager!sandwich</t>
   </si>
   <si>
     <t>location!perfect</t>
@@ -4027,7 +4027,7 @@
     <t>atmoshere!great|bit!great</t>
   </si>
   <si>
-    <t>crew!best|winnie!best|staff!winnie|staff!crew</t>
+    <t>crew!best|staff!winnie|staff!crew</t>
   </si>
   <si>
     <t>place!quiet</t>
@@ -4036,22 +4036,22 @@
     <t>staff!pleasant|wait!pleasant|part!most|beautification!wonderful|fun!staff|way!wonderful|way!wonderful</t>
   </si>
   <si>
-    <t>part!best|atmosphere!best|ls!best|bts!atmosphere|night!late</t>
-  </si>
-  <si>
-    <t>taste!good|music!good|dj!taste|lady!in-house|nights!in-house</t>
-  </si>
-  <si>
-    <t>feature!great|terrace!great|suan!great</t>
-  </si>
-  <si>
-    <t>staff!friendlier</t>
-  </si>
-  <si>
-    <t>setting!casual</t>
-  </si>
-  <si>
-    <t>sum!dim|atmosphere!dim|wait!long|gig!typical|alternative!wait|tables!like|chinatown!sleek</t>
+    <t>part!best|atmosphere!best|ls!best|bts!atmosphere</t>
+  </si>
+  <si>
+    <t>taste!good|music!good|dj!taste|lady!in-house</t>
+  </si>
+  <si>
+    <t>feature!great|terrace!great</t>
+  </si>
+  <si>
+    <t>|staff!friendlier</t>
+  </si>
+  <si>
+    <t>|setting!casual</t>
+  </si>
+  <si>
+    <t>sum!dim|atmosphere!dim|wait!long|gig!typical|alternative!wait|tables!like</t>
   </si>
   <si>
     <t>service!friendly|atmosphere!casual</t>
@@ -4069,7 +4069,7 @@
     <t>place!beautiful</t>
   </si>
   <si>
-    <t>restaurant!typical|nyc!typical|gimmick!typical|theme!typical</t>
+    <t>|restaurant!typical|nyc!typical|gimmick!typical|theme!typical</t>
   </si>
   <si>
     <t>atomosphere!cozy|tables!cozy</t>
@@ -4078,16 +4078,16 @@
     <t>ceiling!spectacular|room!main|dining!main</t>
   </si>
   <si>
-    <t>patio!gigantic</t>
-  </si>
-  <si>
-    <t>months!warmer|seating!warmer|winter!outdoor</t>
+    <t>|patio!gigantic</t>
+  </si>
+  <si>
+    <t>seating!warmer</t>
   </si>
   <si>
     <t>design!good|atmosphere!good</t>
   </si>
   <si>
-    <t>opera!italian|everything!italian|jukebox!everything|strokes!jukebox</t>
+    <t>|opera!italian|everything!italian|jukebox!everything|strokes!jukebox</t>
   </si>
   <si>
     <t>space!attractive|redone!attractive</t>
@@ -4099,7 +4099,7 @@
     <t>indoor!-</t>
   </si>
   <si>
-    <t>decor!simple</t>
+    <t>|decor!simple</t>
   </si>
   <si>
     <t>jazz!-|duo!-|point!-</t>
@@ -4111,25 +4111,25 @@
     <t>scene!love|character!nice|light!nice|place!character</t>
   </si>
   <si>
-    <t>atmosphere!love|paris!atmosphere</t>
-  </si>
-  <si>
-    <t>restaurant!warm|city!new|friend!city</t>
+    <t>atmosphere!love</t>
+  </si>
+  <si>
+    <t>restaurant!warm|friend!city</t>
   </si>
   <si>
     <t>space!-|kind!-|alice!-|wonderland!-|setting!-</t>
   </si>
   <si>
-    <t>place!hidden|bit!place</t>
-  </si>
-  <si>
-    <t>something!-|atmosphere!-|week!-</t>
+    <t>|place!hidden|bit!place</t>
+  </si>
+  <si>
+    <t>something!-|atmosphere!-</t>
   </si>
   <si>
     <t>restaurant!nice</t>
   </si>
   <si>
-    <t>area!nice|garden!nice|months!area</t>
+    <t>area!nice|garden!nice</t>
   </si>
   <si>
     <t>place!recommend</t>
@@ -4138,7 +4138,7 @@
     <t>view!nice|river!nice|nyc!river</t>
   </si>
   <si>
-    <t>restaurant!dreamy</t>
+    <t>|restaurant!dreamy</t>
   </si>
   <si>
     <t>hookah!-</t>
@@ -4153,7 +4153,7 @@
     <t>seating!great</t>
   </si>
   <si>
-    <t>boths!small</t>
+    <t>|boths!small</t>
   </si>
   <si>
     <t>belly!-|dancing!-|crowd!-</t>
